--- a/nr-update-mesures/ig/StructureDefinition-mesures-fr-observation-body-weight.xlsx
+++ b/nr-update-mesures/ig/StructureDefinition-mesures-fr-observation-body-weight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T09:07:33+00:00</t>
+    <t>2024-09-20T07:57:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
